--- a/size_glacial/smallbirds/Athene/Athene.xlsx
+++ b/size_glacial/smallbirds/Athene/Athene.xlsx
@@ -5,10 +5,10 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="TMT" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -382,12 +382,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -468,11 +468,6 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
@@ -481,11 +476,6 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:rPr>
               <a:t>Athene TMT length</a:t>
@@ -494,6 +484,12 @@
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -530,6 +526,18 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -540,7 +548,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$92</c:f>
+              <c:f>TMT!$C$2:$C$92</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="91"/>
@@ -822,7 +830,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$92</c:f>
+              <c:f>TMT!$D$2:$D$92</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="91"/>
@@ -1136,6 +1144,18 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -1146,7 +1166,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$93:$C$97</c:f>
+              <c:f>TMT!$C$93:$C$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1170,7 +1190,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$93:$D$97</c:f>
+              <c:f>TMT!$D$93:$D$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1194,11 +1214,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="3718022"/>
-        <c:axId val="21699574"/>
+        <c:axId val="21891865"/>
+        <c:axId val="39582963"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="3718022"/>
+        <c:axId val="21891865"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1215,11 +1235,6 @@
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
@@ -1228,11 +1243,6 @@
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
                     <a:latin typeface="Calibri"/>
                   </a:rPr>
                   <a:t>Age (ka)</a:t>
@@ -1241,6 +1251,12 @@
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
@@ -1256,28 +1272,24 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="21699574"/>
+        <c:crossAx val="39582963"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="21699574"/>
+        <c:axId val="39582963"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1304,11 +1316,6 @@
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
@@ -1317,11 +1324,6 @@
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
                     <a:latin typeface="Calibri"/>
                   </a:rPr>
                   <a:t>TMT length (mm)</a:t>
@@ -1330,6 +1332,12 @@
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
@@ -1345,23 +1353,19 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3718022"/>
+        <c:crossAx val="21891865"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1383,6 +1387,17 @@
           <a:noFill/>
         </a:ln>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -1414,11 +1429,6 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
@@ -1427,11 +1437,6 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:rPr>
               <a:t>Athene TMT Robustness</a:t>
@@ -1440,6 +1445,12 @@
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1476,6 +1487,18 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -1486,7 +1509,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$92</c:f>
+              <c:f>TMT!$G$2:$G$92</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="91"/>
@@ -1768,7 +1791,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$92</c:f>
+              <c:f>TMT!$H$2:$H$92</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="91"/>
@@ -2082,6 +2105,18 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -2092,7 +2127,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$93:$G$97</c:f>
+              <c:f>TMT!$G$93:$G$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2116,7 +2151,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$93:$H$97</c:f>
+              <c:f>TMT!$H$93:$H$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2140,11 +2175,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="90849227"/>
-        <c:axId val="46971663"/>
+        <c:axId val="83612770"/>
+        <c:axId val="19604098"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="90849227"/>
+        <c:axId val="83612770"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2161,11 +2196,6 @@
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
@@ -2174,11 +2204,6 @@
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
                     <a:latin typeface="Calibri"/>
                   </a:rPr>
                   <a:t>Age (ka)</a:t>
@@ -2187,6 +2212,12 @@
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
@@ -2202,28 +2233,24 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46971663"/>
+        <c:crossAx val="19604098"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="46971663"/>
+        <c:axId val="19604098"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2250,11 +2277,6 @@
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
@@ -2263,11 +2285,6 @@
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
                     <a:latin typeface="Calibri"/>
                   </a:rPr>
                   <a:t>Midshaft area/length</a:t>
@@ -2276,6 +2293,12 @@
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
@@ -2291,23 +2314,19 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90849227"/>
+        <c:crossAx val="83612770"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2329,6 +2348,17 @@
           <a:noFill/>
         </a:ln>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -2355,9 +2385,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>227880</xdr:colOff>
+      <xdr:colOff>227520</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>168480</xdr:rowOff>
+      <xdr:rowOff>168120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2365,8 +2395,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9174240" y="467280"/>
-        <a:ext cx="7646040" cy="4375800"/>
+        <a:off x="7371000" y="467280"/>
+        <a:ext cx="6067440" cy="4375440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2385,9 +2415,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>806040</xdr:colOff>
+      <xdr:colOff>805680</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>33480</xdr:rowOff>
+      <xdr:rowOff>33120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2395,8 +2425,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9691560" y="8262720"/>
-        <a:ext cx="7706880" cy="3875040"/>
+        <a:off x="7888320" y="8262720"/>
+        <a:ext cx="6128280" cy="3874680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2416,13 +2446,13 @@
   </sheetPr>
   <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3814814814815"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.38"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4857,7 +4887,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
